--- a/RBF.xlsx
+++ b/RBF.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fachrul Pralienka BM\Desktop\TugasKK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x1</t>
   </si>
@@ -43,13 +48,16 @@
   </si>
   <si>
     <t>data ke 5</t>
+  </si>
+  <si>
+    <t>dfgdfgdfgdfgdfg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +98,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -136,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,9 +184,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,16 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -426,7 +444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -449,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -466,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -483,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -500,10 +518,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,24 +534,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RBF.xlsx
+++ b/RBF.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fachrul Pralienka BM\Desktop\TugasKK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>x1</t>
   </si>
@@ -50,14 +45,17 @@
     <t>data ke 5</t>
   </si>
   <si>
-    <t>dfgdfgdfgdfgdfg</t>
+    <t>Menghitung dMax (Jarak antara data ke 2 dan data ke 5</t>
+  </si>
+  <si>
+    <t>dMax =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,10 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,16 +391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -444,7 +440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -467,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -484,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -500,8 +496,11 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -518,14 +517,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>SQRT(((B4-B7)^2)+((C4-C7)^2)+((D4-D7)^2))</f>
+        <v>7.3484692283495345</v>
       </c>
     </row>
   </sheetData>
@@ -534,24 +535,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RBF.xlsx
+++ b/RBF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>x1</t>
   </si>
@@ -49,13 +49,31 @@
   </si>
   <si>
     <t>dMax =</t>
+  </si>
+  <si>
+    <t>menghitung ()</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +82,30 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,14 +113,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,145 +445,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SQRT(((B3-$B$4)^2)+((C3-$C$4)^2)+((D3-$D$4)^2))</f>
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="G3" s="3">
+        <f>SQRT( ((B3-$B$7)^2) + ((C3-$C$7)^2) + ((D3-$D$7)^2))</f>
+        <v>12.727922061357855</v>
+      </c>
+      <c r="H3" s="3">
+        <f>EXP(-((F3/$B$20)^2))</f>
+        <v>0.10836802322189586</v>
+      </c>
+      <c r="I3" s="3">
+        <f>EXP(-((G3/$B$20)^2))</f>
+        <v>6.1442123533282208E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F7" si="0">SQRT(((B4-$B$4)^2)+((C4-$C$4)^2)+((D4-$D$4)^2))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G7" si="1">SQRT( ((B4-$B$7)^2) + ((C4-$C$7)^2) + ((D4-$D$7)^2))</f>
+        <v>7.3484692283495345</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H7" si="2">EXP(-((F4/$B$20)^2))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I7" si="3">EXP(-((G4/$B$20)^2))</f>
+        <v>1.8315638888734179E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6811457478686078</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2646555790955361E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69047855047710915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="B6" s="3">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>11.874342087037917</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9109544599802739E-5</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.21107208779109024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3484692283495345</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8315638888734179E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>56</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="G8" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="B18">
         <f>SQRT(((B4-B7)^2)+((C4-C7)^2)+((D4-D7)^2))</f>
         <v>7.3484692283495345</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <f>B18/2</f>
+        <v>3.6742346141747673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
